--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,17 +379,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>VAR(OK)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MSPE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nugget</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Non-expl var of model</t>
+          <t>S_nugget</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(TOTAL)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(DATA)</t>
         </is>
       </c>
     </row>
@@ -404,13 +414,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.999569949896395</v>
+        <v>0.6257652903833159</v>
       </c>
       <c r="E2" t="n">
+        <v>5.999797496840213</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.875</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.124569949896395</v>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +438,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.867811157600656</v>
+        <v>0.9124815930662299</v>
       </c>
       <c r="E3" t="n">
+        <v>5.867739111075558</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.667</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.200811157600656</v>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +462,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5.762772820795173</v>
+        <v>1.157086074073914</v>
       </c>
       <c r="E4" t="n">
+        <v>5.762763442279576</v>
+      </c>
+      <c r="F4" t="n">
         <v>2.078</v>
       </c>
-      <c r="F4" t="n">
-        <v>3.684772820795173</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +486,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.652760820545718</v>
+        <v>1.292427869341214</v>
       </c>
       <c r="E5" t="n">
+        <v>5.652759981456985</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.506</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.146760820545718</v>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +510,17 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5.576618624141035</v>
+        <v>1.393382669966238</v>
       </c>
       <c r="E6" t="n">
+        <v>5.576654963647206</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.849</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.727618624141035</v>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +534,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.54521438138749</v>
+        <v>1.47797386397048</v>
       </c>
       <c r="E7" t="n">
+        <v>5.545205571062069</v>
+      </c>
+      <c r="F7" t="n">
         <v>3.109</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.43621438138749</v>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +558,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.52823611623469</v>
+        <v>1.514747761993534</v>
       </c>
       <c r="E8" t="n">
+        <v>5.528228541709547</v>
+      </c>
+      <c r="F8" t="n">
         <v>3.313</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.21523611623469</v>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="9">
@@ -544,13 +582,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>5.523570417213882</v>
+        <v>1.539375878697728</v>
       </c>
       <c r="E9" t="n">
+        <v>5.52356707496152</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.4093</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.114270417213882</v>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +606,17 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>5.519171118424354</v>
+        <v>1.561999672684794</v>
       </c>
       <c r="E10" t="n">
+        <v>5.51917028891843</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.5069</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.012271118424354</v>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>6.599951515112549</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -414,17 +414,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6257652903833159</v>
+        <v>0.6499262231420104</v>
       </c>
       <c r="E2" t="n">
-        <v>5.999797496840213</v>
+        <v>6.032319885138804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.875</v>
+        <v>0.8921</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="3">
@@ -438,17 +438,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9124815930662299</v>
+        <v>0.9074517110996223</v>
       </c>
       <c r="E3" t="n">
-        <v>5.867739111075558</v>
+        <v>5.911469804138336</v>
       </c>
       <c r="F3" t="n">
-        <v>1.667</v>
+        <v>1.8169</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="4">
@@ -462,17 +462,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.157086074073914</v>
+        <v>1.127206373884514</v>
       </c>
       <c r="E4" t="n">
-        <v>5.762763442279576</v>
+        <v>5.807892747486808</v>
       </c>
       <c r="F4" t="n">
-        <v>2.078</v>
+        <v>2.2282</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="5">
@@ -486,17 +486,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.292427869341214</v>
+        <v>1.267178822006443</v>
       </c>
       <c r="E5" t="n">
-        <v>5.652759981456985</v>
+        <v>5.69176688981334</v>
       </c>
       <c r="F5" t="n">
-        <v>2.506</v>
+        <v>2.6597</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="6">
@@ -510,17 +510,17 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.393382669966238</v>
+        <v>1.375422044123241</v>
       </c>
       <c r="E6" t="n">
-        <v>5.576654963647206</v>
+        <v>5.606584187100444</v>
       </c>
       <c r="F6" t="n">
-        <v>2.849</v>
+        <v>2.9632</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="7">
@@ -534,17 +534,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.47797386397048</v>
+        <v>1.447466125483911</v>
       </c>
       <c r="E7" t="n">
-        <v>5.545205571062069</v>
+        <v>5.582565396729682</v>
       </c>
       <c r="F7" t="n">
-        <v>3.109</v>
+        <v>3.2233</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="8">
@@ -558,17 +558,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.514747761993534</v>
+        <v>1.483948129415954</v>
       </c>
       <c r="E8" t="n">
-        <v>5.528228541709547</v>
+        <v>5.564613845110005</v>
       </c>
       <c r="F8" t="n">
-        <v>3.313</v>
+        <v>3.4306</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="9">
@@ -582,17 +582,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.539375878697728</v>
+        <v>1.506771102985734</v>
       </c>
       <c r="E9" t="n">
-        <v>5.52356707496152</v>
+        <v>5.556891163051717</v>
       </c>
       <c r="F9" t="n">
-        <v>3.4093</v>
+        <v>3.5275</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
     <row r="10">
@@ -606,17 +606,17 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.561999672684794</v>
+        <v>1.53187157506313</v>
       </c>
       <c r="E10" t="n">
-        <v>5.51917028891843</v>
+        <v>5.555116743832956</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5069</v>
+        <v>3.60112</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.599951515112549</v>
+        <v>6.657481653811705</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6499262231420104</v>
+        <v>0.6499112843004414</v>
       </c>
       <c r="E2" t="n">
         <v>6.032319885138804</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9074517110996223</v>
+        <v>0.9075022525134417</v>
       </c>
       <c r="E3" t="n">
         <v>5.911469804138336</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.127206373884514</v>
+        <v>1.127223336088721</v>
       </c>
       <c r="E4" t="n">
         <v>5.807892747486808</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.267178822006443</v>
+        <v>1.267171677413355</v>
       </c>
       <c r="E5" t="n">
         <v>5.69176688981334</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.375422044123241</v>
+        <v>1.375315236457599</v>
       </c>
       <c r="E6" t="n">
         <v>5.606584187100444</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.447466125483911</v>
+        <v>1.447410479761957</v>
       </c>
       <c r="E7" t="n">
         <v>5.582565396729682</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.483948129415954</v>
+        <v>1.483943950312931</v>
       </c>
       <c r="E8" t="n">
         <v>5.564613845110005</v>
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.506771102985734</v>
+        <v>1.506767035254134</v>
       </c>
       <c r="E9" t="n">
         <v>5.556891163051717</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.53187157506313</v>
+        <v>1.531856008382251</v>
       </c>
       <c r="E10" t="n">
         <v>5.555116743832956</v>

--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,102 +523,6 @@
         <v>6.657481653811705</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.447410479761957</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.582565396729682</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.2233</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>6.657481653811705</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.483943950312931</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.564613845110005</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.4306</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>6.657481653811705</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.506767035254134</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.556891163051717</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.5275</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>6.657481653811705</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.531856008382251</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.555116743832956</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.60112</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>6.657481653811705</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6499112843004414</v>
+        <v>0.5379465951389433</v>
       </c>
       <c r="E2" t="n">
-        <v>6.032319885138804</v>
+        <v>3.296988220851615</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8921</v>
+        <v>1.006</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
     </row>
     <row r="3">
@@ -432,23 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9075022525134417</v>
+        <v>0.7281377488446686</v>
       </c>
       <c r="E3" t="n">
-        <v>5.911469804138336</v>
+        <v>3.150579992672729</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8169</v>
+        <v>1.453</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
     </row>
     <row r="4">
@@ -456,23 +456,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.127223336088721</v>
+        <v>0.8070082382439561</v>
       </c>
       <c r="E4" t="n">
-        <v>5.807892747486808</v>
+        <v>3.14240151487407</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2282</v>
+        <v>1.7876</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
     </row>
     <row r="5">
@@ -480,47 +480,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.267171677413355</v>
+        <v>0.9689016246478028</v>
       </c>
       <c r="E5" t="n">
-        <v>5.69176688981334</v>
+        <v>3.060298046692686</v>
       </c>
       <c r="F5" t="n">
-        <v>2.6597</v>
+        <v>1.9857</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6.657481653811705</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>120000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.375315236457599</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.606584187100444</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.9632</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>6.657481653811705</v>
+        <v>3.68572083840303</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7281377488446686</v>
+        <v>0.7280848504843999</v>
       </c>
       <c r="E3" t="n">
-        <v>3.150579992672729</v>
+        <v>3.150583257023714</v>
       </c>
       <c r="F3" t="n">
-        <v>1.453</v>
+        <v>1.4536</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
@@ -462,13 +462,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8070082382439561</v>
+        <v>0.8069553398836873</v>
       </c>
       <c r="E4" t="n">
-        <v>3.14240151487407</v>
+        <v>3.142404779225055</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7876</v>
+        <v>1.7882</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9689016246478028</v>
+        <v>0.968848726287534</v>
       </c>
       <c r="E5" t="n">
-        <v>3.060298046692686</v>
+        <v>3.060301311043671</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9857</v>
+        <v>1.9863</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">

--- a/_RESULTS/Error_budget/error_budget_area4.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area4.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5379465951389433</v>
+        <v>0.537951374674301</v>
       </c>
       <c r="E2" t="n">
         <v>3.296988220851615</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7280848504843999</v>
+        <v>0.7281014536267207</v>
       </c>
       <c r="E3" t="n">
         <v>3.150583257023714</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8069553398836873</v>
+        <v>0.8070132168209969</v>
       </c>
       <c r="E4" t="n">
         <v>3.142404779225055</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.968848726287534</v>
+        <v>0.9688415884926516</v>
       </c>
       <c r="E5" t="n">
         <v>3.060301311043671</v>
